--- a/BUS152 Lesson Plan.xlsx
+++ b/BUS152 Lesson Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brian\Althoff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91A28005-AFF7-4E32-9C88-88E87D7FAF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEF9B24-0859-4A30-9F17-C7ACF9FF2663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1672C708-DA98-4C13-AFAA-FD633DE0FCB3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="136">
   <si>
     <t>M</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Capstone Project:  Presentations</t>
   </si>
   <si>
-    <t>Wrap Up:  DS As A Career, Continuing Ed., Support, Recommendations</t>
-  </si>
-  <si>
     <t>Stats Modeling:  Regression</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>Solving The Knapsack Problem With A Linear Program</t>
   </si>
   <si>
-    <t>Working With Text (Regular Expressions, Tokenization, Bag of Words)</t>
-  </si>
-  <si>
     <t>Decomposing An Optimization Problem</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>Forecasting Airline Passengers</t>
   </si>
   <si>
-    <t>Distributions and Important Theorems (CLT, Law of Large Numbers)</t>
-  </si>
-  <si>
     <t>Training, Testing, and Validation Examples</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>Modeling Watchout Examples (Bias, Variance, Under/Over Fitting)</t>
   </si>
   <si>
-    <t>Principles of Programming (Parameterization, Modularization, Functions, etc.)</t>
-  </si>
-  <si>
     <t>Projects</t>
   </si>
   <si>
@@ -316,9 +304,6 @@
     <t>Spring 2024</t>
   </si>
   <si>
-    <t>Dealing With Data Integrity Issues (Missing, NULL, etc.)</t>
-  </si>
-  <si>
     <t>Clustering TBD - Due 3/26</t>
   </si>
   <si>
@@ -343,12 +328,6 @@
     <t>How Impressive is Joe DiMaggio's 56 Game Hitting Streak?</t>
   </si>
   <si>
-    <t>Variable Types</t>
-  </si>
-  <si>
-    <t>Structure Types</t>
-  </si>
-  <si>
     <t>Data Wrangling:  Grouping  and Operations</t>
   </si>
   <si>
@@ -364,9 +343,6 @@
     <t>Aggregations, Grouping, &amp; Operations</t>
   </si>
   <si>
-    <t>Variable Operations</t>
-  </si>
-  <si>
     <t>Python:  Variable Operations</t>
   </si>
   <si>
@@ -385,18 +361,9 @@
     <t>Project</t>
   </si>
   <si>
-    <t>Working With Data Elements (Accessing &amp; Updating)</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
     <t>Python:  Logicals, Conditionals, and Looping</t>
   </si>
   <si>
-    <t>Logicals, Conditionals, &amp; Looping</t>
-  </si>
-  <si>
     <t>Python:  Structure Types</t>
   </si>
   <si>
@@ -434,6 +401,42 @@
   </si>
   <si>
     <t>DS &amp; ML Overview:  Data Science &amp; Machine Learning Overview</t>
+  </si>
+  <si>
+    <t>Lab 1.0 - Variable Types</t>
+  </si>
+  <si>
+    <t>Lab 1.1 - Variable Operations</t>
+  </si>
+  <si>
+    <t>Lab 1.2 - Structure Types</t>
+  </si>
+  <si>
+    <t>Lab 1.4 - Logicals, Conditionals, &amp; Looping</t>
+  </si>
+  <si>
+    <t>Lab 1.5 - Functions</t>
+  </si>
+  <si>
+    <t>Ex. 1.0 - Variable Types</t>
+  </si>
+  <si>
+    <t>Lab 1.3 - Working With Data Elements</t>
+  </si>
+  <si>
+    <t>Dealing With Data Integrity Issues</t>
+  </si>
+  <si>
+    <t>Distributions and Important Theorems</t>
+  </si>
+  <si>
+    <t>Working With Text</t>
+  </si>
+  <si>
+    <t>Principles of Programming</t>
+  </si>
+  <si>
+    <t>Wrap Up:  DS As A Career, Continuing Ed., Recommendations</t>
   </si>
 </sst>
 </file>
@@ -1167,9 +1170,9 @@
     <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="71.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="2" hidden="1" customWidth="1"/>
@@ -1181,7 +1184,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1193,7 +1196,7 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -1235,19 +1238,19 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="J5" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,25 +1258,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1293,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>9</v>
@@ -1308,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>9</v>
@@ -1329,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1337,13 +1340,13 @@
         <v>9</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>9</v>
@@ -1361,10 +1364,10 @@
         <v>45296</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -1372,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>9</v>
@@ -1398,17 +1401,17 @@
         <v>45299</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="H10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>9</v>
@@ -1434,10 +1437,10 @@
         <v>45300</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -1448,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>9</v>
@@ -1469,7 +1472,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -1480,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>9</v>
@@ -1498,10 +1501,10 @@
         <v>45302</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -1512,7 +1515,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>9</v>
@@ -1530,10 +1533,10 @@
         <v>45303</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -1541,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>9</v>
@@ -1570,10 +1573,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>9</v>
@@ -1597,10 +1600,10 @@
         <v>45307</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -1623,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -1643,10 +1646,10 @@
         <v>45309</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -1669,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
@@ -1691,16 +1694,16 @@
         <v>45313</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>9</v>
@@ -1718,10 +1721,10 @@
         <v>45314</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -1744,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -1764,10 +1767,10 @@
         <v>45316</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -1787,10 +1790,10 @@
         <v>45317</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -1812,16 +1815,16 @@
         <v>45320</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>9</v>
@@ -1839,10 +1842,10 @@
         <v>45321</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -1865,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -1885,10 +1888,10 @@
         <v>45323</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -1908,10 +1911,10 @@
         <v>45324</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -1936,13 +1939,13 @@
         <v>13</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>9</v>
@@ -1963,7 +1966,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="24"/>
@@ -1986,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="24"/>
@@ -2009,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="24"/>
@@ -2032,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="25"/>
@@ -2054,16 +2057,16 @@
         <v>45334</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>9</v>
@@ -2081,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="24"/>
@@ -2098,10 +2101,10 @@
         <v>45336</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="24"/>
@@ -2118,10 +2121,10 @@
         <v>45337</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="24"/>
@@ -2141,12 +2144,12 @@
         <v>21</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="25"/>
       <c r="H39" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2166,13 +2169,13 @@
         <v>9</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2184,15 +2187,15 @@
         <v>45342</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="24"/>
       <c r="H41" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2207,12 +2210,12 @@
         <v>4</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="24"/>
       <c r="H42" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2224,15 +2227,15 @@
         <v>45344</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="24"/>
       <c r="H43" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2244,15 +2247,15 @@
         <v>45345</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="25"/>
       <c r="H44" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2266,19 +2269,19 @@
         <v>45348</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2290,15 +2293,15 @@
         <v>45349</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="24"/>
       <c r="H46" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2313,12 +2316,12 @@
         <v>4</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="24"/>
       <c r="H47" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2330,15 +2333,15 @@
         <v>45351</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="24"/>
       <c r="H48" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2358,7 +2361,7 @@
       <c r="F49" s="28"/>
       <c r="G49" s="25"/>
       <c r="H49" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2375,10 +2378,10 @@
         <v>22</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G50" s="23" t="s">
         <v>9</v>
@@ -2396,10 +2399,10 @@
         <v>45356</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="24"/>
@@ -2419,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="F52" s="27"/>
       <c r="G52" s="24"/>
@@ -2436,10 +2439,10 @@
         <v>45358</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="24"/>
@@ -2456,10 +2459,10 @@
         <v>45359</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="25"/>
@@ -2478,13 +2481,13 @@
         <v>45362</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>9</v>
@@ -2502,10 +2505,10 @@
         <v>45363</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F56" s="27"/>
       <c r="G56" s="24"/>
@@ -2525,7 +2528,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="24"/>
@@ -2542,10 +2545,10 @@
         <v>45365</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F58" s="27"/>
       <c r="G58" s="24"/>
@@ -2587,16 +2590,16 @@
         <v>23</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2611,12 +2614,12 @@
         <v>16</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="24"/>
       <c r="H61" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2631,12 +2634,12 @@
         <v>4</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="24"/>
       <c r="H62" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2651,12 +2654,12 @@
         <v>16</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="24"/>
       <c r="H63" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2671,12 +2674,12 @@
         <v>16</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="25"/>
       <c r="H64" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,16 +2696,16 @@
         <v>16</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2722,7 +2725,7 @@
       <c r="F66" s="27"/>
       <c r="G66" s="24"/>
       <c r="H66" s="10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2737,7 +2740,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="24"/>
@@ -2802,13 +2805,13 @@
         <v>9</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2823,12 +2826,12 @@
         <v>26</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="24"/>
       <c r="H71" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,7 +2843,7 @@
         <v>45385</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>9</v>
@@ -2848,7 +2851,7 @@
       <c r="F72" s="27"/>
       <c r="G72" s="24"/>
       <c r="H72" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2860,15 +2863,15 @@
         <v>45386</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F73" s="27"/>
       <c r="G73" s="24"/>
       <c r="H73" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,15 +2883,15 @@
         <v>45387</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="25"/>
       <c r="H74" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2902,19 +2905,19 @@
         <v>45390</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,15 +2929,15 @@
         <v>45391</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="24"/>
       <c r="H76" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2949,12 +2952,12 @@
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="24"/>
       <c r="H77" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2966,15 +2969,15 @@
         <v>45393</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="24"/>
       <c r="H78" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2986,15 +2989,15 @@
         <v>45394</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="25"/>
       <c r="H79" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3008,19 +3011,19 @@
         <v>45397</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3032,15 +3035,15 @@
         <v>45398</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="24"/>
       <c r="H81" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3055,12 +3058,12 @@
         <v>4</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="24"/>
       <c r="H82" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,15 +3075,15 @@
         <v>45400</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" s="27"/>
       <c r="G83" s="24"/>
       <c r="H83" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3092,15 +3095,15 @@
         <v>45401</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="25"/>
       <c r="H84" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>45404</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>9</v>
@@ -3126,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3138,15 +3141,15 @@
         <v>45405</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
       <c r="H86" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3161,12 +3164,12 @@
         <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
       <c r="H87" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3178,15 +3181,15 @@
         <v>45407</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
       <c r="H88" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3198,15 +3201,15 @@
         <v>45408</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3223,7 @@
         <v>45411</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>9</v>
@@ -3232,7 +3235,7 @@
         <v>9</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3244,15 +3247,15 @@
         <v>45412</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
       <c r="H91" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,12 +3270,12 @@
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
       <c r="H92" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,15 +3287,15 @@
         <v>45414</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3304,15 +3307,15 @@
         <v>45415</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3326,7 +3329,7 @@
         <v>45418</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>9</v>
@@ -3338,7 +3341,7 @@
         <v>9</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3350,15 +3353,15 @@
         <v>45419</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
       <c r="H96" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3373,12 +3376,12 @@
         <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
       <c r="H97" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,15 +3393,15 @@
         <v>45421</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3410,15 +3413,15 @@
         <v>45422</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3444,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3464,7 +3467,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3479,7 @@
         <v>45427</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>9</v>
@@ -3496,7 +3499,7 @@
         <v>45428</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>9</v>
@@ -3516,7 +3519,7 @@
         <v>45429</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>9</v>
